--- a/products/产品列表.xlsx
+++ b/products/产品列表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e14eedcead5e2201/文档/TH Exhibitions/products/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\GSR-extra\products\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="13_ncr:1_{2DAB0B8D-8122-4504-8C9D-6C4A598DEE79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC60EA0D-3FEA-49A3-92BE-BBFD4171BA3D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D6E551-7B5D-4341-BF3E-3EBFBC13094D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1490,7 +1490,7 @@
   <dimension ref="A2:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1616,7 +1616,9 @@
         <f>B11*C11</f>
         <v>24</v>
       </c>
-      <c r="E11" s="11"/>
+      <c r="E11" s="11">
+        <v>7</v>
+      </c>
       <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1633,7 +1635,9 @@
         <f t="shared" ref="D12:D13" si="0">B12*C12</f>
         <v>108</v>
       </c>
-      <c r="E12" s="11"/>
+      <c r="E12" s="11">
+        <v>1</v>
+      </c>
       <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">

--- a/products/产品列表.xlsx
+++ b/products/产品列表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\GSR-extra\products\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D6E551-7B5D-4341-BF3E-3EBFBC13094D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77F56D6-007D-46EF-9CE4-96F01F88E050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="物品列表" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>编号</t>
   </si>
@@ -124,10 +124,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>在吉林THO不销售</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>列车纸模</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -137,10 +133,6 @@
   </si>
   <si>
     <t>模拟驾驶用的道具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在吉林THO暂不销售</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1010,8 +1002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1088,13 +1080,13 @@
         <v>7</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>27</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>29</v>
       </c>
       <c r="F5" s="12"/>
     </row>
@@ -1112,10 +1104,10 @@
         <v>5</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1123,17 +1115,17 @@
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1152,9 +1144,7 @@
       <c r="E8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="10" t="s">
-        <v>28</v>
-      </c>
+      <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
@@ -1170,9 +1160,7 @@
       <c r="E9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="F9" s="10"/>
     </row>
     <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
@@ -1489,15 +1477,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2F65BC-2FC7-47FD-9C02-7FF7498AC6ED}">
   <dimension ref="A2:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -1511,70 +1499,47 @@
         <v>12</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="10">
-        <f>D4/C4</f>
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="C4" s="10">
-        <v>100</v>
-      </c>
-      <c r="D4" s="10">
-        <v>26.5</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="10">
-        <f>D5/C5</f>
-        <v>0.13100000000000001</v>
-      </c>
-      <c r="C5" s="10">
-        <v>100</v>
-      </c>
-      <c r="D5" s="10">
-        <v>13.1</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="10">
-        <v>2</v>
-      </c>
-      <c r="C6" s="10">
-        <v>20</v>
-      </c>
-      <c r="D6" s="10">
-        <v>40</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
-      <c r="D7" s="13">
-        <f>SUM(D4:D6)</f>
-        <v>79.599999999999994</v>
-      </c>
+      <c r="D7" s="13"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -1590,83 +1555,61 @@
         <v>12</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B11" s="10">
         <v>3</v>
       </c>
-      <c r="C11" s="10">
-        <v>8</v>
-      </c>
-      <c r="D11" s="10">
-        <f>B11*C11</f>
-        <v>24</v>
-      </c>
-      <c r="E11" s="11">
-        <v>7</v>
-      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="11"/>
       <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B12" s="10">
         <v>6</v>
       </c>
-      <c r="C12" s="10">
-        <v>18</v>
-      </c>
-      <c r="D12" s="10">
-        <f t="shared" ref="D12:D13" si="0">B12*C12</f>
-        <v>108</v>
-      </c>
-      <c r="E12" s="11">
-        <v>1</v>
-      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="11"/>
       <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B13" s="10">
         <v>4</v>
       </c>
-      <c r="C13" s="10">
-        <v>19</v>
-      </c>
-      <c r="D13" s="10">
-        <f t="shared" si="0"/>
-        <v>76</v>
-      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
-      <c r="D14" s="13">
-        <f>SUM(D11:D13)</f>
-        <v>208</v>
-      </c>
+      <c r="D14" s="13"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
     </row>
